--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/81_Zonguldak_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/81_Zonguldak_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DADB8EF0-C808-43A8-89CD-103280751120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BDAFBD5-3F59-4C28-B4F7-32DA341E50EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{1FE7D38B-53FE-4868-948F-6EE448091BE8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="668" xr2:uid="{3B88631A-396D-4B71-8E30-F3FB39DD485B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -985,14 +985,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F84DC0E2-B5C2-46D8-9C7D-53335FBDD50C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{19E6B770-3219-45CB-93A1-E4F59DD97014}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{339950DC-701D-41CC-8917-4F792A3057F0}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{9B2DCB29-434C-4FA9-A95A-64391491CDDC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{E74BF4BF-84C7-409C-95D7-368D773E1472}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9D0CDD6A-7B5F-4560-8F96-E5052EA28D72}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{181DC7EF-6231-4176-B9A1-728452D51ED3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{B82C2498-BD3F-4EF3-953F-11AB6DDC5431}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8A76BBA8-0C6F-41F3-84B6-77B7A0A4C024}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8B45EB67-7F14-419B-9216-09D9A31F7C96}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{CDC599A9-811B-4A7F-8167-FCB6A4622390}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{D88E2677-B88E-43D5-9E9E-7BC8E390844D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{C28535E9-7FDE-4004-9969-00129364C229}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{F3534E25-47F3-4486-9298-BB1C9C4CBD18}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{FEE79129-3B51-41BF-B832-87FDACB6D612}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{4AC943E6-B6C8-450D-AA85-BA46BC085CDC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1362,7 +1362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A73797A-4131-44E4-A6F1-4214F8BE5E1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C42580-B3A7-48C6-BDC6-F765501157A0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2601,18 +2601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A198388-63C8-4A5C-850C-454ED32C6545}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33CF8275-FAA9-4F26-A0DB-44515CBD5E61}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{080BAC23-8FD4-4748-85F5-0E4D745C1E42}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{77A41AB9-4D09-4150-BDC3-406BA501F31D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1B1737BE-667F-46C4-849D-D49421878842}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27A9F7D3-49B5-4F1A-B887-785378CD99B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9299FF50-3104-48CC-9221-D9838896626A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DE58D4A1-55EB-43BA-97B7-38E1F8F8D453}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54104A49-1E81-488F-B216-38530411D1A5}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9D6235C3-16C3-4286-8F9B-77B9ABAEAC6A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2FC9AF5B-3C37-410C-BA89-5D39CF548F89}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FD52EEA-C2A8-4BF6-A419-E1DDA3126018}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F5A9548-F02C-4BBA-91AB-A80583AD29D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{760A0B59-1904-4EA4-871A-0D1C61AC0738}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{81EF9597-8F30-47E7-B91B-E868D2CB302D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{71A5B7C8-5725-48A3-911F-E6A945E04E7A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{24909D07-23D8-4757-A281-AC5728D38AE8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A89F3ED2-E61F-42A6-9CA4-91D5A8FC1F65}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12BD3B9D-D132-4826-A9D7-50E1BB7BB3F7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DE51134-74A0-4170-B73F-792EF75CA368}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1AE1E18F-20A6-4D1B-B691-FEB67251F16F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9597515D-085F-45EA-BD91-0F42370FD8AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{865F41B4-6751-45DB-BFB3-11A0183E3CD5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{38A4D1B7-A555-44E7-BAD3-6D6D0692BECF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710E9FF8-294B-428C-A63A-F06978B8A048}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F06629D-25AD-4660-ADEB-9B68D01B40A5}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3845,18 +3845,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{01913C99-8F80-46E1-8816-6608A802DB35}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{091245C9-D14E-4143-830F-493E362BEC98}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EF1DBED6-1DFB-4424-83B3-91D69107FE0F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A0922E86-EAF0-4E49-9EDF-89D5261B301D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7BE6E6FE-ADFF-4144-B549-CEBD618D09C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D36B7C2-E6CE-444C-B175-EFB9F1FC7571}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{075BAB4F-FB83-4BEF-A729-4233D5188063}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63922479-181E-4E0D-B8C4-86491609D786}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C50D55C3-4C0A-4996-9190-C799B91E9913}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F2C39109-C8E9-4539-B526-9F58E1C83730}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2E05054-3B7E-45C3-9328-CFBE60CBCAE1}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EB5ECAA-CEA4-4427-9C21-53AEEE39557C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3CDAA95-E92B-409D-8D2C-AB97C8C95F75}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50DF96B5-D23F-413B-B9AB-E573F62BC379}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{447D123B-510A-40E6-BAE9-6F885ED87955}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21E9E1A0-34FA-4068-9AB9-941AE3513BC0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE882634-41F1-4F03-86AB-4EE8A5096D3B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3930C9FD-BFD2-4CB7-A526-5C03C1F55BA5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B71AE18-9B06-4871-9534-A24F68B81C88}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9AF350A4-9F25-4F14-95B0-56D09779D7D5}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E4849FE2-7D9F-486E-96A0-8D367A89A6FB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{757CE769-2383-4F91-9083-1AD40CA1BF23}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8BF0AAD6-B3F4-481E-8DEC-0FF18D0D05BB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A161FFEB-9B94-472D-897B-1D27C37EF54F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3869,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6120F4F-E048-460D-9F22-AACE340EB89B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E6D82D-AD39-4CE5-9834-0BBF68FAD188}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5085,18 +5085,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4365BC64-59F5-4590-8C36-3EBBF3DBC31F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2A721A62-3020-4B0F-8A9C-ECF53EFC2648}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9F66C793-4F12-4A3A-B371-DE89D15DE9A3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8EFD3B99-55B1-4C48-954B-392B7679671C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E27B0F7F-D93C-414E-BC72-91D2C1FFD0F3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6AB83DDE-BE2F-48EC-A3F4-D9374A056CF1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{67E6CC2D-7EB2-4D35-8E78-5743C68D14E2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{17B18844-88F9-4BCD-BC9D-13C11CBA0631}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{82C0944D-DE8C-4115-84CC-4E721C8F13C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{65680796-37BA-4A9D-865A-4185A7366B4F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4AB06897-DB25-4FED-845C-2BD1F2371297}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{020F8C66-47E7-4FF2-B03C-9A3EB17CE219}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{548E27D2-370F-47D6-B650-6E54FC9BB33B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E28A3ED4-2E30-47E9-8936-BCDD157B2A5D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDA01ADE-02D0-410D-B10F-DE27C5AD824D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D2F3288C-BF71-4BD4-BA6A-F4A2E796625F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{076FC86F-7217-4CF0-B809-1C88260B9BC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{882BCC0E-1ADB-489D-9EE3-D1F0944DA367}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23E19F5C-8782-443F-872F-FEE4F134FED6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93ED93DF-5B58-4C55-8557-7506B0956480}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01A740B5-8E33-4A59-9FD7-0E685DB4FAC8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F56B940-6B1A-4C6F-879E-D1F8777532A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{642EC700-C3AE-4C27-AF9B-1FC0E155D56B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB24BCD9-1FED-4FAE-B717-A75F8FFCE9EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5109,7 +5109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75056FBD-290E-4F8C-96F0-2A1266959AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3182E7-313E-44C3-8BCB-31E232B93B55}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6321,18 +6321,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0EAAEB5D-F183-47D0-BD31-FA9628E64F82}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8707FAAD-8F9E-4288-96DE-7141BED9A009}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D284EC1B-9943-4752-A31D-BA804A97C9B1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ACC1915D-B668-4B31-8BEC-C1E15EC4EC40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7288A2A-6DE8-4921-97D1-513C28B79C7D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C0310BF3-65F8-4DC4-B962-765C8AA5DA9C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F0FB6159-228F-4784-AC54-FEE7DD64317F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D7B01523-BD97-404A-BBE4-9285CF4345DF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{114E7F76-7604-4374-A99F-84F6818E651B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5C8DCB4D-99AB-46AE-AFFC-DE0D34C83F66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{07B57270-D8C1-469A-BC36-3090E53CAA61}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C9F4D742-44FE-41D4-BF21-87713733E4D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47187147-0ED4-4D52-A0D2-C42388E4DA20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DBA01F4-0903-472A-96E9-2866082A406B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D01DF38-F29D-4C23-B4E5-FC7392D3ED54}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FA72AA38-12B0-4A5D-8914-29D306ABA86B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E99679D1-16B9-436F-8346-328752AF5382}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BDFD438A-6F9E-4525-B88F-F1373CE5EE31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{202F5A37-308F-4767-8036-AD11612DB007}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06915B2F-637C-4B5B-A130-C947E6D55AFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{998CE047-2A63-4360-97AD-0582DF84E8E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B0FDC26-64BD-4B56-AD37-200FD4146E0D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D7E7F69E-771B-4553-A880-939ABC8CAF32}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{14F82309-4196-466F-B78A-18C593393206}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6345,7 +6345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AC27DD-DA62-4C1C-937B-3235743D3CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B8A9BB-EC9F-478A-92EE-DD2A91873F5E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7584,18 +7584,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6268AB49-EBD4-4771-828C-3B8242AA9601}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BD13DBD-F6CB-43F2-BF80-454C08E27A3A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{871A9A3A-7684-4EF5-9EC1-E359286A0B29}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7992E4DA-E4FD-4D5D-BB47-D7DA3E846DA9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D42EC26B-B8A1-413E-BB4E-7BB92B8D9F42}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{765254BD-1740-4586-B3AB-104876F7BC2E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{70448159-1903-49B9-A05C-65566AB10D9D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72620581-B520-497C-9D3A-508FB60530BA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9240AF75-F3A0-4EFC-A5FC-5EF95D50DBAB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6FEF43C-5602-4643-85DE-3DF4D327BEFF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4450D512-7CE1-4930-9D7E-1D2739E3B783}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E2DCB6B-DFCC-46AD-BB01-F0CA66A96E87}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ECEAABE-2D3A-4071-A578-E4A067FDE526}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{72E51704-C445-4307-AAFD-2E7022E9E848}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{54B75CB5-77FF-4D18-8D6E-DBFB25176CED}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6392F91D-AE57-488B-AAB6-D7B473E4E3F7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65F122DF-8C9E-4D98-8C71-EDF36A3A6D16}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{423078ED-A1B9-4E81-AEBD-05661F6C1D9C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61D0C4E1-43CA-4079-AC02-560790345914}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A238619-8ED5-43B0-81AD-050CFF505DF6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1DB7EA3-9D0D-4878-AFFD-6784CCC664D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F9FDDF5-6151-4279-B27D-5A75B01FC813}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{479846BF-3DF3-4FB5-BC1F-F540D563D559}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DD86872-79F6-46A1-B7B5-8B4FBE2E892D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7608,7 +7608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65EE87D-1987-4553-AEB8-7709EEC1B34A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD8A854-6BFE-401D-B94A-4EFD0014F2B0}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8844,18 +8844,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4D89C72B-0159-4986-8411-06C39E5DE1DF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7EB5044C-422A-4C7A-AC34-E5C3AF449EDD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{84AEBE1E-BCD0-42A3-AD34-622876A97612}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8AB00605-99B4-4AC3-8568-CB07473F57FB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2C40683-D8D6-4968-A942-0546C749B710}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7515E271-ECBF-4A4A-B608-ABB9BB366FD2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{60F754BE-9CDC-420E-BEB8-9BF881B14634}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7353327E-FCD3-436F-8728-D044314F1D1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B7F52887-E7AD-458F-B0BC-133F6EDE3A14}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{30F99088-B4C3-4D12-91EC-B2FD8D08CAA5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8A516761-2A18-4777-A88D-CA8FEB876908}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C3F157E-0861-4827-B9BD-48C153963058}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3850FD9E-2915-4149-BA52-5B3E5D6DEDD7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1AD6993-200B-4810-B965-9E656922333F}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B213A8B8-2B3B-4F7E-9DCB-584B235BBA5B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AEFD16CF-1AC0-4846-A63B-2D975D79A73B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90DE3B73-1020-408B-A215-EDD5799C31B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2036B638-317A-4187-A3BF-1D0EA23B0565}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C9F5FDE4-9B4F-4948-BC5D-B95F20856B8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD4A1585-51CA-4993-B557-334298791646}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{01D760B2-E9F7-4CF4-BEC1-792771866C56}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{808F8492-822F-4E5B-AFA7-D81A617FAFE3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59258027-A271-4A5E-9779-23AD6540D399}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{98A0C512-8713-4ED5-9863-394B23C03E45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8868,7 +8868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC21AEC-87CD-4FC2-921F-A61E1EAB6A6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05D5542-8556-4883-8317-45E84FCB468E}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10104,18 +10104,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EBA4EBF1-28AD-4D46-92DD-CBB2298A3B4C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4809F843-2184-452A-AE19-04078178C4D3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B59020A-B094-4C70-947F-FE96627E1CBA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7C50D2CE-0F30-4DE0-BC81-FE1C03A64854}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E952B92F-65C9-4D7A-99DC-9ACED25DD988}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5274301D-6598-4937-8325-F7554FFCAE91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56F5A2B0-EC32-471A-B228-44F98458AC51}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06C63BBF-062F-4A1C-883B-997655336844}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FADAC007-284D-48C7-94A2-F89062F238A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{38C8922F-0DDF-4705-9B52-05652D665C13}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D2E97CA-B5E7-427C-8EC6-B3B667F4BD06}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B04FA6C-833C-4F90-9D57-A232158C42D1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DA24CCC-4954-478B-9163-3CCAA9DCBD20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CED6C485-C4A7-4F4D-9BF5-B714C46558D4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{89AA1995-3631-43DA-BBB7-BE5AFB0B39E6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9852CCF8-B8F4-421D-A4F7-C5DB975A25B4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{84FB4ABA-0A63-4A22-8F2D-0C5F2259D910}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{27936AA0-BACE-4114-8D4C-1A4CBABC07A2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23A81933-00DD-45D4-AA14-41907C73EF30}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C2E5100-67F9-4328-BDB2-EE09BE7BCD2D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{87A8D7E6-231C-4381-9BF9-D2614F0955DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6D69503C-73F7-4805-B51A-4F6FE3644B5C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C2593C4F-E736-4655-ADEF-B8EEA2CC7B39}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61BC2CAB-0F53-42D9-903D-18180F3641CC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10128,7 +10128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5649A3B7-5865-421B-B481-D7D4DEED1DBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52374FE-6468-4EB7-BCFE-A5151F21B599}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11360,18 +11360,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5721CDA7-FBCA-4FBB-BCDA-EF5295DEF918}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B560438-AC6B-4917-85A1-5E95FD3EE4C3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CA6AFADA-EDF9-4A8E-920E-7006C06F9A3E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F55290FE-4436-4689-BF97-E3491371D915}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B7073FCA-D8F0-4B7B-9272-9527B60337CD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80C27CD6-4B71-4585-A630-EA49E4E57D18}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ACE900EF-6D2C-4953-AD40-65674EDE784B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4FA27F4C-FFAE-4AFE-90D2-DA768652D8E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF0E4F62-E73D-4AE5-BDC8-1D100711F600}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{822DE0B1-F896-49DF-AB34-E426679C29EA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{858BAB56-7DE1-4493-AAA1-B5EC4C03CEB4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BCF5F601-D836-4D55-AF45-FE68549A140C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{473A92F4-74DB-447C-BCC1-B06ADBBF58A4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9966D22A-B484-4074-A0E5-8F78BED37A5D}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DCFDD78F-6F06-45BA-8F0C-C0A5C65C0AD4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{366AEC5E-F59E-4B70-B3CE-24B70E810447}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{990CAE7D-BF55-4853-B06E-1D82E7F078F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F7E3F78-9604-4488-A0FE-6ADA05930794}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3687936F-5363-4739-80AF-283731B7180C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA2AD9A2-D5F4-414B-A070-71392F42CABB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CE4B1C59-B38C-4E18-ABAA-3926137764B9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E26B05F6-E965-479A-B5DE-AF09D956E743}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A6B733E-CBFE-4AE1-8ECC-CE525D20F6F3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{61A56A87-E4B3-4217-84E1-C47A01539697}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11384,7 +11384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E777690-8C5F-4CB0-82FF-06B74CA0A6F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834BF156-99F3-430B-B645-CF3067417A2D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12608,18 +12608,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{212CD7F0-38F8-4DF5-8AE5-A93B02217563}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{613A993A-C08C-4C00-B5C6-9BF8BA5076BC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{952D0E16-EE7E-4628-9EA3-CE7894E84A47}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{985A615C-B0D7-4526-89C3-4208A04CF38F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B349E2AF-0FB1-4E0A-8AF3-73F831580DAB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{19CCB724-AD18-43F4-86B5-63170E87EFAD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BE1BA00-02A3-4821-B29D-65D550C16F36}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{565B4B4D-8A01-45AA-8CC7-A7EC78DB3E54}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{505F4F6E-CF95-4ACF-90DC-A9C2C6D15829}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E6306770-338A-4907-AD9F-6F7E9D627D3A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FECFCC81-CDA1-450B-B469-24550169FB94}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AB2DA11-B5DE-4DDB-B3F1-451184B6F8E7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4A16F1D-80D2-4480-9BB4-49E579B59EA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0F42A752-19AF-40DE-A29C-491E2A16B100}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EDA1623D-C085-4C59-B58D-E5D424D7BA77}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9B37719C-2DB9-4430-82E0-F7CAD8F1287F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8467C1B9-B3DB-406A-9526-938108E4FB2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3C2CE4B-5C84-4735-A5F6-D7529F1B8D9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{33F0EDA5-9651-4660-BA61-A112FB588F38}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B18CC98F-4E5B-4765-A813-3052A4D882A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{64D0FD7C-0B1D-45FE-91A9-91CE34B41081}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{11FCA596-ACB0-468D-BDB3-AE9EF5F5FAFB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{260F77AB-B14F-4BF5-80E6-EFD984E767B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF3A8559-D54D-4D88-A825-B33A4B4AEA27}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12632,7 +12632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{569A4FD6-95CC-4E87-AB5E-7C8EC461DBCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C6F2DF4-6FF7-40AF-864D-511FDA47901C}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13856,18 +13856,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{958EB819-E718-45C1-BF16-AA5D9D415449}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1AB8DDA-83F2-4687-970A-CF92F6C2BB65}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BAE6C831-EFE9-4267-A4D7-90DD2F343359}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{69A5984B-59F1-4ABB-88A2-ED8E00A8AD31}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{06A3CCDC-FF27-425F-AAC0-BD1D0D0B80AD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3942F98D-FB85-4D6A-B7A5-CF62907E882D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F81BCBDA-7C24-420C-BE70-ED3DC7C75C8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{796F48B9-3A3B-49CA-88D9-A96573E26221}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3ADAF88C-DB55-4F69-8207-6B8AB8625DD2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0D28729E-EBE4-4106-882A-29FDF866E080}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EBF8D28D-2D94-46D6-807C-538EE67CBF29}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0202322C-3AA4-4EB8-92DB-C6A0AA2FEDA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0193EBFF-FB81-4AA9-88CC-5852F887D19A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE8B4AB3-2189-432B-9702-6D0F105CFDB0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5A3E3AD0-E613-49BE-A60E-2D926E2ABEAA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9582A069-0A07-4238-ABD7-5A6A3574AAC4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43C9B10F-1348-4E02-965E-1108F7C70AEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EBF0447B-6DFF-4094-8DFC-39BF35FE5CAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{004F3694-2120-4724-BC49-118BEC465786}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{30A799F1-B4A4-4C2C-802F-B3745ED8EAB9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF6A4589-0176-422A-A73E-A2577DB18095}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B33E2708-965C-40CD-AB3E-28682F98C0E1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7C328509-1EB8-4840-9066-D23032AFCB89}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68964967-52DD-4224-96F0-5AF40789158F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13880,7 +13880,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB5C3E2-7087-4CF0-9512-2239C0F1C634}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF3A99FC-0CFD-4BBA-86D7-E1021EAB80C0}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15100,18 +15100,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{892CDCF7-1CBD-41D7-9B26-E710927C1C26}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F8AC74D-9AEA-4B38-BAFE-F48B7DC197DD}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CDA8375A-1E4E-48C6-9F39-A6FC05B58121}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0665E29B-F485-4F2F-8FF7-568314F4915A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5C4A1DCB-1107-4393-B29C-6BACD6A26739}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE3DA1A4-CE50-47BC-AF96-A63A32FD2D7C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B36511EF-9405-4C46-91D0-A9C6847A8E19}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9692C2C-AEAB-4E1D-962E-FEF44731C42E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D29516B1-5FAB-4B74-BDF7-F9D54F0D0074}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FD67E9AF-C828-46BD-9FC7-17282C598318}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{87666080-1E8F-451D-A48B-67A9050CD6CD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D016469A-128B-456B-BEB8-75ABC5EE5DB2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39966E3C-C8CC-4149-A357-C59823A91783}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D198EC89-FA68-4791-86B9-2BF50128375A}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6D650357-5EE0-4D7E-9008-3BECE0C9DA2D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F20C8966-6339-4EB8-B7E2-1D25AFEB9808}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{74646E1D-EA9F-4F72-95C3-170ABA6250B7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B6A74F9B-5229-49C6-BDDF-07620BF4AFC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{544C482F-9B27-4473-BFF0-6F18EB5EADBC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ADAE3D86-9D71-460B-9548-5B89C93089F7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E15CC72-7764-486C-BE46-1593716388B9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7F19D86E-8204-4D00-9E96-AF53A42839F3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{66F114CC-E01F-4EFE-B47F-CE4D3B950114}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B26DD8D5-C12F-4538-BDC7-9FA19722571A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15124,7 +15124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC94A7-29FD-4C92-9D33-C724BAF1D6AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D98158-6527-4293-9528-71391F73BCD9}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16344,18 +16344,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8448C3E0-8FC7-4FE6-97FA-36E8B426630E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B189158-9E55-4C5C-B309-CCEB217CA146}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{022FC0A1-5A67-4EB0-9BB4-0DA7F915BB6D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{08544D56-AC25-4D26-A399-64EE235CCE63}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B2C6BCB-BC06-4EAA-AD1F-E5A369866BAF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CE9D24D-5896-4BDB-8AAF-BDC5E928E42F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8B3D277-ACC9-4DD6-A742-F91939469F77}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBAAEC9C-6196-4D88-AF10-47E936F3269C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D0FA0531-4ABA-4912-9A80-57D3948B48FA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D025E12D-F188-4841-B9DA-C2FE3E7156E3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{131CC1D9-3715-4A97-8649-2B4B799DE3FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{120C094A-251E-4ABB-AD12-68DE5FD1D03B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B2E3BB25-BCA5-4A42-BCB6-967E8CC84152}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{70164C88-3534-4209-98F9-01730800B161}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1F4663E6-5C32-42FA-BFD0-B6F29848C2BC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1F8C848B-8FD8-4387-B69C-C451B2D83FCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E90DFB5D-F6AE-4887-AEBC-11020C96D460}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{535E034C-FD3B-4C1A-964A-0251E9A4FC76}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90636BC7-F97A-4D6E-B067-1137E320A4BE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B238288-204E-4B87-A4D2-3E7902A0392F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{149C3104-D9CD-41C4-BF44-F7D18E3F2500}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{89D26C66-A9EB-475B-B54B-30B001FD0A81}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5AB52FC7-0504-4E4E-A593-19D153A322AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9BB57A57-981C-4C8C-941A-E0F86FBF6E9E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
